--- a/2014-2020_by_gender_by_year_incl2019.xlsx
+++ b/2014-2020_by_gender_by_year_incl2019.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>YEAR</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Avg Grade</t>
   </si>
   <si>
+    <t>Avg Grade Error</t>
+  </si>
+  <si>
     <t>Pre Score F</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>Avg Grade F</t>
   </si>
   <si>
+    <t>Avg Grade F error</t>
+  </si>
+  <si>
     <t>Pre Score M</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t>Avg M Grade</t>
+  </si>
+  <si>
+    <t>Avg M grade error</t>
   </si>
   <si>
     <t>2014 111</t>
@@ -485,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,1065 +573,1200 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>69.47450980392156</v>
       </c>
       <c r="D2">
+        <v>1.082683212348161</v>
+      </c>
+      <c r="E2">
         <v>12.22222222222222</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.8299256927239462</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16.26666666666667</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.961585391240146</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.044444444444444</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.2275</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.02844124330170442</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.270205936094532</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.4840439452830782</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>45</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>70.62745098039215</v>
       </c>
-      <c r="O2">
+      <c r="P2">
+        <v>2.182993229187262</v>
+      </c>
+      <c r="Q2">
         <v>18.98387096774194</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.7222723760724706</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>20.46774193548387</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.7991659262316229</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>1.483870967741936</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.1346998535871157</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.05000719128523947</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>1.077192444685266</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0.4385821197580691</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>62</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>69.52112676056338</v>
       </c>
+      <c r="AB2">
+        <v>1.780721617447517</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>68.77952755905511</v>
       </c>
       <c r="D3">
+        <v>0.9433690284102851</v>
+      </c>
+      <c r="E3">
         <v>8.31</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.3532518488088472</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11.18</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.4684770080491754</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.869999999999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.132319041032734</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.01742777995922866</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.5867346723669702</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.3608785575970583</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>100</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>71.41441441441441</v>
       </c>
-      <c r="O3">
+      <c r="P3">
+        <v>1.216691750392823</v>
+      </c>
+      <c r="Q3">
         <v>13.17741935483871</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.5910151318407346</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>14.83870967741935</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.7352259096542473</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>1.661290322580644</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.09875359539789065</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0.04496989452239333</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.9433218031465384</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>0.6170259902574159</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>62</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>69.17105263157895</v>
       </c>
+      <c r="AB3">
+        <v>1.887018269688585</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>71.40000000000001</v>
       </c>
       <c r="D4">
+        <v>0.960303147093993</v>
+      </c>
+      <c r="E4">
         <v>12.1625</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.5738068937071275</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>14.1875</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.5974878183176412</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.025</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1135248773651016</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.02285394666213483</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.8283996887395584</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.3601928983900611</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>80</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>69.84883720930233</v>
       </c>
-      <c r="O4">
+      <c r="P4">
+        <v>1.447155561098833</v>
+      </c>
+      <c r="Q4">
         <v>17.15555555555556</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.6805503961688807</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>19.6</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.7672770734003416</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>2.444444444444446</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.1903114186851212</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>1.025603699823384</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>0.4189968136698011</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>90</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>72.43269230769231</v>
       </c>
+      <c r="AB4">
+        <v>1.420849524930006</v>
+      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>71.94265232974911</v>
       </c>
       <c r="D5">
+        <v>0.6859315427916317</v>
+      </c>
+      <c r="E5">
         <v>8.467213114754099</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.3570917062688789</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>12.09016393442623</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.4473353793918954</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.622950819672131</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.1682527598020556</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.01657304314922326</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.5723839867970716</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.3502235469448585</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>122</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>70.8515625</v>
       </c>
-      <c r="O5">
+      <c r="P5">
+        <v>1.027134914386193</v>
+      </c>
+      <c r="Q5">
         <v>12.98837209302326</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.5837503603309038</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>16.66279069767442</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.688703149956194</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>3.67441860465116</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.2159945317840054</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.03037152493102834</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.9028158793165103</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>0.4424288949386546</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>86</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>75.06593406593407</v>
       </c>
+      <c r="AB5">
+        <v>1.031589240385755</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>73.69090909090909</v>
       </c>
       <c r="D6">
+        <v>0.852870770047349</v>
+      </c>
+      <c r="E6">
         <v>12.65909090909091</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.5532950512141868</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>15.07954545454546</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.5989414187727352</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.420454545454547</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.1395806028833552</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.03027141051974356</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.8153933019222114</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.4324004076867678</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>88</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>75.2258064516129</v>
       </c>
-      <c r="O6">
+      <c r="P6">
+        <v>1.29163969709811</v>
+      </c>
+      <c r="Q6">
         <v>18.42477876106195</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.5386170234948955</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>19.35398230088495</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.6576545731672686</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.929203539823007</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.080275229357798</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.8500693122365511</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>0.3660093360776047</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>113</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>74.9296875</v>
       </c>
+      <c r="AB6">
+        <v>1.314253309313725</v>
+      </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>67.09621993127148</v>
       </c>
       <c r="D7">
+        <v>0.9800069516762926</v>
+      </c>
+      <c r="E7">
         <v>8.38036809815951</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.337758469669902</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>13.14110429447853</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.4233112369027712</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4.760736196319018</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.2202043132803632</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.02606069692203975</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.5415470313111393</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.3619644739167225</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>163</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>69.01764705882353</v>
       </c>
-      <c r="O7">
+      <c r="P7">
+        <v>1.160567858217153</v>
+      </c>
+      <c r="Q7">
         <v>13.71604938271605</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.6216849287113214</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>17.59259259259259</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.7618969539576407</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>3.876543209876543</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.2380591357088704</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0.04300290687862524</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.9833509643238939</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>0.5481119996978467</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>81</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>65.08695652173913</v>
       </c>
+      <c r="AB7">
+        <v>1.938843529453582</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>72.29139072847683</v>
       </c>
       <c r="D8">
+        <v>0.9236809418410966</v>
+      </c>
+      <c r="E8">
         <v>13.46153846153846</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.8444037846192365</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>15.01923076923077</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.8832659062239271</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.557692307692308</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.09418604651162794</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.05372298577769118</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1.221955978166507</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.5391277391388291</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>52</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>71.30909090909091</v>
       </c>
-      <c r="O8">
+      <c r="P8">
+        <v>2.131355258332288</v>
+      </c>
+      <c r="Q8">
         <v>18.19090909090909</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.6482793617466404</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>20.03636363636364</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.6712153060758306</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>1.845454545454544</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.1562740569668975</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.9331645717541479</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>0.4667754206794948</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>110</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>75.61666666666666</v>
       </c>
+      <c r="AB8">
+        <v>1.371640705854507</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>72.82262210796915</v>
       </c>
       <c r="D9">
+        <v>0.7383614982158875</v>
+      </c>
+      <c r="E9">
         <v>9.341935483870968</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.3613546534383871</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>14.69677419354839</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.4553249799113191</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5.35483870967742</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.259212991880075</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.01840167632098874</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.5812899645554016</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.3698686839386575</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>155</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>72.4601226993865</v>
       </c>
-      <c r="O9">
+      <c r="P9">
+        <v>1.08926184084992</v>
+      </c>
+      <c r="Q9">
         <v>15.06410256410256</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.6585435204259115</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>20.2948717948718</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.6093698875011779</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>5.230769230769232</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.3502145922746782</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.897224179393395</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>0.4913243592729864</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>78</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>75.32954545454545</v>
       </c>
+      <c r="AB9">
+        <v>1.45488777238213</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>77.84375</v>
       </c>
       <c r="D10">
+        <v>1.318511977808283</v>
+      </c>
+      <c r="E10">
         <v>11.97674418604651</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.8113865551343201</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>12.81395348837209</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.9749099478267346</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.8372093023255811</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.04645161290322579</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.03889853635251428</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1.268383833161029</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.690009575549571</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>43</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>83.54347826086956</v>
       </c>
-      <c r="O10">
+      <c r="P10">
+        <v>2.53663143850667</v>
+      </c>
+      <c r="Q10">
         <v>17.36842105263158</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.6797424964615975</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>17.2421052631579</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.687386890131191</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>-0.1263157894736828</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>-0.009999999999999891</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>0.03449851527697276</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.9667215722327059</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>0.3179025977388099</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>95</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>75.40707964601769</v>
       </c>
+      <c r="AB10">
+        <v>1.793091337226872</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>73.65000000000001</v>
       </c>
       <c r="D11">
+        <v>0.7191459145368098</v>
+      </c>
+      <c r="E11">
         <v>9.790419161676647</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.3659081535133401</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>14.10778443113773</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.4384840137280439</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4.317365269461078</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.2136296296296296</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.0168850133911933</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.5711015733672929</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.318613100477558</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>167</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>74.03208556149733</v>
       </c>
-      <c r="O11">
+      <c r="P11">
+        <v>0.853204081384824</v>
+      </c>
+      <c r="Q11">
         <v>14.45977011494253</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.5754499413888345</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>18.70114942528735</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.6580805569134573</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>4.241379310344826</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.2729289940828401</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>0.03362558601135256</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.8741925728533383</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>0.46731315739378</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>87</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>73.43434343434343</v>
       </c>
+      <c r="AB11">
+        <v>1.545713886699104</v>
+      </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>71.59545454545454</v>
       </c>
       <c r="D12">
+        <v>1.032202498452333</v>
+      </c>
+      <c r="E12">
         <v>12.23404255319149</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.8997958273688867</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>15.25531914893617</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.9658690110177403</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3.021276595744681</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.170059880239521</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.04118831310426695</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.320051316197536</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.5814662649722386</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>47</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>68.375</v>
       </c>
-      <c r="O12">
+      <c r="P12">
+        <v>2.321008164722654</v>
+      </c>
+      <c r="Q12">
         <v>18.21052631578947</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>0.5735942161974787</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>20.81954887218045</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>0.5600054708812855</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>2.609022556390979</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>0.2213010204081634</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.8016336147344186</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>0.3291203203828698</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>133</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>73.27659574468085</v>
       </c>
+      <c r="AB12">
+        <v>1.245218062265225</v>
+      </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>77.57391304347826</v>
       </c>
       <c r="D13">
+        <v>0.6782427209726147</v>
+      </c>
+      <c r="E13">
         <v>10.14835164835165</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.3326392230262093</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>15.03296703296703</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.3881009824623639</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4.884615384615385</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.2460559092167174</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.0168381049037444</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.5111469703360593</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.3060009826661632</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>182</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>77.95854922279793</v>
       </c>
-      <c r="O13">
+      <c r="P13">
+        <v>0.8365708117439418</v>
+      </c>
+      <c r="Q13">
         <v>14.34020618556701</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>0.6335559720026744</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>18.84536082474227</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>0.6572586065613458</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>4.505154639175258</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.2876892692560896</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.9128976095703261</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>0.4176424256880285</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>97</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>77.48514851485149</v>
       </c>
+      <c r="AB13">
+        <v>1.439720397867885</v>
+      </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>80.90438247011951</v>
       </c>
       <c r="D14">
+        <v>0.8164221349637032</v>
+      </c>
+      <c r="E14">
         <v>12.46</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.7285490192632119</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>15.76</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.7843156382529697</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.299999999999999</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.1881413911060433</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.01774728109865164</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.5324184329595493</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1.070483392621086</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>50</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>82.07246376811594</v>
       </c>
-      <c r="O14">
+      <c r="P14">
+        <v>1.471282191676577</v>
+      </c>
+      <c r="Q14">
         <v>15.00980392156863</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>0.5475798925263136</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>19.25490196078431</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>0.5919091897716164</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>4.245098039215685</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.2831916285153694</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>0.01498099686070901</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.4494299058212705</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>0.8063499411764228</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>102</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>79.96129032258065</v>
       </c>
+      <c r="AB14">
+        <v>1.112404215915574</v>
+      </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>75.84293193717278</v>
       </c>
       <c r="D15">
+        <v>0.6857149543860296</v>
+      </c>
+      <c r="E15">
         <v>9.765625</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.2868962819140994</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>14.08854166666667</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.391245507743513</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4.322916666666666</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.2136422136422136</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.01014961515342272</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.3044884546026817</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.485162368600053</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>192</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>75.38524590163935</v>
       </c>
-      <c r="O15">
+      <c r="P15">
+        <v>0.8639077223541494</v>
+      </c>
+      <c r="Q15">
         <v>12.47887323943662</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>0.5648522019360666</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>16.76056338028169</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>0.8105106294029764</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>4.281690140845072</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>0.2443729903536978</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>0.02053589114731075</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.6160767344193224</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>0.9879197793379946</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>71</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>76.55172413793103</v>
+      </c>
+      <c r="AB15">
+        <v>1.231723651052317</v>
       </c>
     </row>
   </sheetData>

--- a/2014-2020_by_gender_by_year_incl2019.xlsx
+++ b/2014-2020_by_gender_by_year_incl2019.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>YEAR</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>2020 112</t>
+  </si>
+  <si>
+    <t>2021 111</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1769,6 +1772,92 @@
         <v>1.231723651052317</v>
       </c>
     </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>79.18796992481202</v>
+      </c>
+      <c r="D16">
+        <v>0.8359441897506774</v>
+      </c>
+      <c r="E16">
+        <v>11.02272727272727</v>
+      </c>
+      <c r="F16">
+        <v>1.018065485275031</v>
+      </c>
+      <c r="G16">
+        <v>12.93181818181818</v>
+      </c>
+      <c r="H16">
+        <v>1.066696371671396</v>
+      </c>
+      <c r="I16">
+        <v>1.909090909090908</v>
+      </c>
+      <c r="J16">
+        <v>0.1005988023952095</v>
+      </c>
+      <c r="K16">
+        <v>0.1632124798862961</v>
+      </c>
+      <c r="L16">
+        <v>0.9654814996854494</v>
+      </c>
+      <c r="M16">
+        <v>1.474550264197597</v>
+      </c>
+      <c r="N16">
+        <v>44</v>
+      </c>
+      <c r="O16">
+        <v>79.35714285714286</v>
+      </c>
+      <c r="P16">
+        <v>1.370501973033721</v>
+      </c>
+      <c r="Q16">
+        <v>16.18681318681319</v>
+      </c>
+      <c r="R16">
+        <v>0.7252488247863553</v>
+      </c>
+      <c r="S16">
+        <v>18.02197802197802</v>
+      </c>
+      <c r="T16">
+        <v>0.7958957635376001</v>
+      </c>
+      <c r="U16">
+        <v>1.835164835164836</v>
+      </c>
+      <c r="V16">
+        <v>0.1328560063643596</v>
+      </c>
+      <c r="W16">
+        <v>0.1748215456249216</v>
+      </c>
+      <c r="X16">
+        <v>0.791786859781113</v>
+      </c>
+      <c r="Y16">
+        <v>1.076771064001577</v>
+      </c>
+      <c r="Z16">
+        <v>91</v>
+      </c>
+      <c r="AA16">
+        <v>78.80116959064327</v>
+      </c>
+      <c r="AB16">
+        <v>1.143071736615535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
